--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,63 +43,69 @@
     <t>evil</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>wrong</t>
   </si>
   <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>frightening</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
@@ -109,24 +115,18 @@
     <t>crazy</t>
   </si>
   <si>
-    <t>fucked</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>seriously</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>false</t>
   </si>
   <si>
-    <t>seriously</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
@@ -136,19 +136,22 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>brilliant</t>
+    <t>happy</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
@@ -157,22 +160,28 @@
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
     <t>social</t>
   </si>
   <si>
-    <t>media</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -544,10 +553,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -658,10 +667,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -679,13 +688,13 @@
         <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9545454545454546</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +732,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K5">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +764,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>41</v>
@@ -805,13 +814,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9038461538461539</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="C7">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -823,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8181818181818182</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -855,13 +864,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -873,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K8">
-        <v>0.6140350877192983</v>
+        <v>0.7</v>
       </c>
       <c r="L8">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="M8">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -897,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -905,13 +914,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.9134615384615384</v>
       </c>
       <c r="C9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -923,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>0.6</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L9">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="M9">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -955,13 +964,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7777777777777778</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -973,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K10">
-        <v>0.5862068965517241</v>
+        <v>0.5733333333333334</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -997,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1038,13 @@
         <v>46</v>
       </c>
       <c r="K11">
-        <v>0.4833333333333333</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1047,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1055,13 +1064,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7368421052631579</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1073,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K12">
-        <v>0.4666666666666667</v>
+        <v>0.55</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1097,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1105,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.675</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1123,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K13">
-        <v>0.3888888888888889</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1147,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1155,13 +1164,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1173,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K14">
-        <v>0.1875</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1197,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1205,13 +1214,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1223,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K15">
-        <v>0.1481481481481481</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1247,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1255,13 +1264,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5833333333333334</v>
+        <v>0.6875</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1279,13 +1288,13 @@
         <v>51</v>
       </c>
       <c r="K16">
-        <v>0.05919854280510018</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L16">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="M16">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1297,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>1033</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1305,13 +1314,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1323,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K17">
-        <v>0.009036144578313253</v>
+        <v>0.1875</v>
       </c>
       <c r="L17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1347,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>658</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1355,37 +1364,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5384615384615384</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C18">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K18">
-        <v>0.006912442396313364</v>
+        <v>0.05828779599271403</v>
       </c>
       <c r="L18">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="M18">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1397,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1724</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1405,13 +1414,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C19">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1423,7 +1432,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13</v>
+        <v>5</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19">
+        <v>0.02120141342756184</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1431,13 +1464,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1450,6 +1483,30 @@
       </c>
       <c r="H20">
         <v>6</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20">
+        <v>0.02037037037037037</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1457,13 +1514,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4782608695652174</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1475,7 +1532,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>0.005184331797235023</v>
+      </c>
+      <c r="L21">
+        <v>9</v>
+      </c>
+      <c r="M21">
+        <v>9</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1727</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1483,13 +1564,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1501,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1509,13 +1590,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1527,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1535,13 +1616,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4347826086956522</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="C24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1553,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1561,13 +1642,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4285714285714285</v>
+        <v>0.45</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1579,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1587,13 +1668,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4117647058823529</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1605,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1613,13 +1694,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3404255319148936</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1631,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1639,13 +1720,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3214285714285715</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1657,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1665,13 +1746,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2564102564102564</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="C29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1683,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1691,13 +1772,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.25</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1709,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1717,7 +1798,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.25</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -1735,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1743,13 +1824,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.141025641025641</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1761,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
